--- a/data/trans_bre/P18_6_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P18_6_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,32 +636,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,56</t>
+          <t>13,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,53</t>
+          <t>13,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,15</t>
+          <t>11,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,86</t>
+          <t>11,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>290,41%</t>
+          <t>10,87</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>267,02%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +671,17 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>610,51%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>362,21%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>422,03%</t>
         </is>
       </c>
     </row>
@@ -668,32 +694,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 19,52</t>
+          <t>4,43; 24,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 18,23</t>
+          <t>4,57; 25,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,3; 20,81</t>
+          <t>4,31; 22,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 18,38</t>
+          <t>-0,78; 24,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,22; —</t>
+          <t>0,99; 27,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,55; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -702,6 +728,16 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,19</t>
+          <t>-16,08</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-9,88</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,74%</t>
+          <t>16,64</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-59,04%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>-79,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>76,78%</t>
+          <t>-41,47%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>106,09%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>191,43%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 17,81</t>
+          <t>-35,04; 17,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,55; 2,56</t>
+          <t>-53,69; 2,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 13,61</t>
+          <t>-42,96; 7,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 14,13</t>
+          <t>-5,55; 18,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,39; 434,88</t>
+          <t>1,76; 33,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 73,74</t>
+          <t>-87,19; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-69,33; 287,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,24; 579,52</t>
+          <t>-95,37; 90,82</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-63,98; 988,76</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 948,45</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>47,17%</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>38,74%</t>
+          <t>83,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>164,5%</t>
+          <t>-21,64%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>70,33%</t>
+          <t>136,44%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>32,02%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>13,48%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 12,41</t>
+          <t>-2,91; 19,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 7,83</t>
+          <t>-11,42; 7,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 15,48</t>
+          <t>-1,82; 16,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 12,24</t>
+          <t>-8,76; 11,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,71; 202,81</t>
+          <t>-11,06; 12,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-53,4; 227,51</t>
+          <t>-21,26; 393,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,51; 667,84</t>
+          <t>-70,91; 192,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 308,08</t>
+          <t>-39,95; 856,66</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-54,42; 323,94</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-53,08; 180,17</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,14</t>
+          <t>16,46</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>8,45</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,47</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>191,4%</t>
+          <t>11,87</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>204,33%</t>
+          <t>316,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>173,34%</t>
+          <t>336,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>130,37%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>86,55%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>128,44%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 18,96</t>
+          <t>6,58; 25,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 13,77</t>
+          <t>1,17; 15,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 17,95</t>
+          <t>1,25; 21,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 12,0</t>
+          <t>-2,3; 15,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,14; 543,98</t>
+          <t>1,28; 21,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,45; 749,91</t>
+          <t>43,7; 1427,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,74; 583,81</t>
+          <t>-14,91; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 198,12</t>
+          <t>-6,61; 677,28</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-26,17; 407,43</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4,07; 517,87</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,62</t>
+          <t>8,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>9,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>8,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>175,13%</t>
+          <t>12,12</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>151,43%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>87,05%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>56,89%</t>
+          <t>113,39%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>96,47%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>154,66%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 17,1</t>
+          <t>-1,43; 20,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 6,14</t>
+          <t>-7,78; 10,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 14,65</t>
+          <t>-1,89; 23,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 13,74</t>
+          <t>-2,52; 22,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 690,63</t>
+          <t>0,66; 26,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-71,27; 232,24</t>
+          <t>-45,48; 800,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-26,67; 312,62</t>
+          <t>-78,73; 446,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 290,08</t>
+          <t>-32,47; 557,82</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-33,72; 485,07</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-11,5; 723,79</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,19</t>
+          <t>11,78</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,78</t>
+          <t>8,65</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,71</t>
+          <t>8,12</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,29</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>296,96%</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>417,98%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>437,33%</t>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>38,03%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-16,3%</t>
         </is>
       </c>
     </row>
@@ -1168,27 +1294,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,04; 22,2</t>
+          <t>-0,34; 28,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,07; 23,99</t>
+          <t>2,11; 17,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,56; 21,89</t>
+          <t>2,39; 19,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,17; 24,47</t>
+          <t>-8,75; 13,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,0; 1961,4</t>
+          <t>-18,72; 13,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1203,7 +1329,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,57; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-88,58; 377,1</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,63</t>
+          <t>9,96</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,35</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>118,04%</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>58,72%</t>
+          <t>142,07%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>145,15%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>108,09%</t>
+          <t>63,87%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>90,03%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>87,76%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,19; 12,58</t>
+          <t>2,8; 14,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 6,48</t>
+          <t>-9,64; 5,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,61; 11,91</t>
+          <t>-4,12; 10,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,32; 10,21</t>
+          <t>1,81; 10,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,05; 240,87</t>
+          <t>2,95; 13,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 167,33</t>
+          <t>5,0; 347,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,97; 299,86</t>
+          <t>-62,37; 151,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>41,03; 199,22</t>
+          <t>-29,11; 195,55</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17,36; 227,23</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>21,84; 205,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
